--- a/eitp2023/images/detail.xlsx
+++ b/eitp2023/images/detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Desktop\kittenbot docs\competition\KittenbotHKCompetition\eitp2023\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B1F1D-DD3E-40E9-8FB5-9909D9F65DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E73BEF-BA84-4C3A-AD20-EE259C428E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>比賽日期</t>
   </si>
@@ -53,18 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隊伍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最多36隊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每間學校最多2隊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>賽果公佈與網上頒獎典禮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +127,22 @@
   </si>
   <si>
     <t>參賽者成功報名後，大會將會安排Zoom網上簡介會，詳細講解比賽注意事項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多36隊，每間學校最多2隊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隊伍數目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小學組，初中組(中一至中三)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,6 +461,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -466,6 +503,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -473,15 +519,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,33 +539,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -546,12 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C13" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
@@ -851,218 +855,215 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="3"/>
-      <c r="C7" s="12" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="33"/>
+      <c r="C11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="21" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="34"/>
+      <c r="C12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="22"/>
-      <c r="C11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="23"/>
-      <c r="C12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="22" spans="12:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="12:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L23" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="12:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L24" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="12:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L25" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="12:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L26" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="12:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="12:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L28" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="12:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L29" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="12:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C10:H10"/>
@@ -1070,6 +1071,11 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C8:H9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
